--- a/sample_sorted.xlsx
+++ b/sample_sorted.xlsx
@@ -1,37 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t>UNIT NO</t>
+  </si>
+  <si>
+    <t>NAME OF SPONSOR COMPANY</t>
+  </si>
+  <si>
+    <t>NAME OF WORKERS</t>
+  </si>
+  <si>
+    <t>FIN NUMBER</t>
+  </si>
+  <si>
+    <t>WP EXPIRY</t>
+  </si>
+  <si>
+    <t>CHECK IN DATE</t>
+  </si>
+  <si>
+    <t>BED NO</t>
+  </si>
+  <si>
+    <t>A1-03-30</t>
+  </si>
+  <si>
+    <t>B1-04-30</t>
+  </si>
+  <si>
+    <t>B2-02-30</t>
+  </si>
+  <si>
+    <t>ADF WATERPROOF PTE LTD</t>
+  </si>
+  <si>
+    <t>PENTA-OCEAN CONSTRUCTION CO LTD</t>
+  </si>
+  <si>
+    <t>YSE GLOBAL PTE LTD</t>
+  </si>
+  <si>
+    <t>MIAH MOHAMMAD AINAL</t>
+  </si>
+  <si>
+    <t>NATH JIBON DEB</t>
+  </si>
+  <si>
+    <t>SATTER ABDUS</t>
+  </si>
+  <si>
+    <t>SARKER EMRAN</t>
+  </si>
+  <si>
+    <t>G2509861M</t>
+  </si>
+  <si>
+    <t>G2093044L</t>
+  </si>
+  <si>
+    <t>G8296417M</t>
+  </si>
+  <si>
+    <t>G2327730T</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-06 </t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2015-02-04</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +141,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,189 +457,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>UNIT NO</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NAME OF SPONSOR COMPANY</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NAME OF WORKERS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>FIN NUMBER</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>WP EXPIRY</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CHECK IN DATE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>BED NO</t>
-        </is>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A1-03-30</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ADF WATERPROOF PTE LTD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MIAH MOHAMMAD AINAL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>G2509861M</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-09-26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2023-08-18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A1-03-30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ADF WATERPROOF PTE LTD</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NATH JIBON DEB</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>G2093044L</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024-07-06 </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2015-02-04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>B1-04-30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PENTA-OCEAN CONSTRUCTION CO LTD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SATTER ABDUS</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>G8296417M</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-11-19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>B2-02-30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>YSE GLOBAL PTE LTD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SARKER EMRAN</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>G2327730T</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample_sorted.xlsx
+++ b/sample_sorted.xlsx
@@ -14,109 +14,236 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="74">
   <si>
     <t>UNIT NO</t>
   </si>
   <si>
+    <t>A1-02-30</t>
+  </si>
+  <si>
+    <t>A1-03-30</t>
+  </si>
+  <si>
+    <t>A1-04-30</t>
+  </si>
+  <si>
+    <t>B1-03-30</t>
+  </si>
+  <si>
+    <t>B2-02-30</t>
+  </si>
+  <si>
+    <t>B2-03-30</t>
+  </si>
+  <si>
     <t>NAME OF SPONSOR COMPANY</t>
   </si>
   <si>
+    <t>PROOF-TECH WATERPROOFING &amp; MAINTENANCE PTE LTD</t>
+  </si>
+  <si>
+    <t>ADF WATERPROOF PTE LTD</t>
+  </si>
+  <si>
+    <t>JOHN CONSTRUCTION PTE LTD</t>
+  </si>
+  <si>
+    <t>JJ VISTA MINES RESOURCES PTE LTD</t>
+  </si>
+  <si>
+    <t>YSE GLOBAL PTE LTD</t>
+  </si>
+  <si>
+    <t>ONG &amp; LAI CONSTRUCTION</t>
+  </si>
+  <si>
     <t>NAME OF WORKERS</t>
   </si>
   <si>
+    <t>THAN VAN LAN</t>
+  </si>
+  <si>
+    <t>MIAH MOHAMMAD AINAL</t>
+  </si>
+  <si>
+    <t>MIN BANYAR CHAN SAW</t>
+  </si>
+  <si>
+    <t>NATH JIBON DEB</t>
+  </si>
+  <si>
+    <t>CHANDRAN MALAIKKANNAN</t>
+  </si>
+  <si>
+    <t>VEERAMANI VASANTHARASAN</t>
+  </si>
+  <si>
+    <t>NAGARASU MUTHUKUMAR</t>
+  </si>
+  <si>
+    <t>KRISHNAN KUMARESAN</t>
+  </si>
+  <si>
+    <t>SHANMUGAVEL</t>
+  </si>
+  <si>
+    <t>KANDASAMY SENTHILMURUGAN</t>
+  </si>
+  <si>
+    <t>MAMUN SHAMIM AL</t>
+  </si>
+  <si>
+    <t>ALAM JAHANGIR</t>
+  </si>
+  <si>
+    <t>MIAH RAZIB</t>
+  </si>
+  <si>
+    <t>AMBAYERAM MANIKANDAN</t>
+  </si>
+  <si>
+    <t>ARUMUGAM RAJKUMAR</t>
+  </si>
+  <si>
     <t>FIN NUMBER</t>
   </si>
   <si>
-    <t>WP EXPIRY</t>
+    <t>M3096887L</t>
+  </si>
+  <si>
+    <t>G2509861M</t>
+  </si>
+  <si>
+    <t>M3193101T</t>
+  </si>
+  <si>
+    <t>G2093044L</t>
+  </si>
+  <si>
+    <t>G2917122Q</t>
+  </si>
+  <si>
+    <t>G2332177M</t>
+  </si>
+  <si>
+    <t>G8174979K</t>
+  </si>
+  <si>
+    <t>G2401234X</t>
+  </si>
+  <si>
+    <t>G8652364M</t>
+  </si>
+  <si>
+    <t>G7553834R</t>
+  </si>
+  <si>
+    <t>G2062345X</t>
+  </si>
+  <si>
+    <t>G2666519T</t>
+  </si>
+  <si>
+    <t>G2198568L</t>
+  </si>
+  <si>
+    <t>G7778973T</t>
+  </si>
+  <si>
+    <t>G6614623K</t>
+  </si>
+  <si>
+    <t>WP EXIPRY</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-06 </t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>2024-12-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-04 </t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2024-07-28</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
   </si>
   <si>
     <t>CHECK IN DATE</t>
   </si>
   <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>2015-02-04</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
+    <t>2022-08-13</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
     <t>BED NO</t>
-  </si>
-  <si>
-    <t>A1-03-30</t>
-  </si>
-  <si>
-    <t>B1-04-30</t>
-  </si>
-  <si>
-    <t>B2-02-30</t>
-  </si>
-  <si>
-    <t>ADF WATERPROOF PTE LTD</t>
-  </si>
-  <si>
-    <t>PENTA-OCEAN CONSTRUCTION CO LTD</t>
-  </si>
-  <si>
-    <t>YSE GLOBAL PTE LTD</t>
-  </si>
-  <si>
-    <t>MIAH MOHAMMAD AINAL</t>
-  </si>
-  <si>
-    <t>NATH JIBON DEB</t>
-  </si>
-  <si>
-    <t>SATTER ABDUS</t>
-  </si>
-  <si>
-    <t>SARKER EMRAN</t>
-  </si>
-  <si>
-    <t>G2509861M</t>
-  </si>
-  <si>
-    <t>G2093044L</t>
-  </si>
-  <si>
-    <t>G8296417M</t>
-  </si>
-  <si>
-    <t>G2327730T</t>
-  </si>
-  <si>
-    <t>2024-09-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-06 </t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2024-08-02</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>2015-02-04</t>
-  </si>
-  <si>
-    <t>2023-11-27</t>
-  </si>
-  <si>
-    <t>2022-08-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -140,30 +267,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,113 +567,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" t="s">
+        <v>60</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
         <v>28</v>
+      </c>
+      <c r="D77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/sample_sorted.xlsx
+++ b/sample_sorted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
   <si>
     <t>UNIT NO</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>BED NO</t>
+  </si>
+  <si>
+    <t>1/04/2024</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,100 +674,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
+    <row r="14" spans="1:7">
+      <c r="G14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>2</v>
       </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>2</v>
       </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>2</v>
       </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -796,83 +789,88 @@
         <v>2</v>
       </c>
     </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" t="s">
-        <v>65</v>
+      <c r="G32" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>3</v>
       </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>3</v>
       </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
@@ -909,138 +907,128 @@
         <v>3</v>
       </c>
     </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>4</v>
+      <c r="G47" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>4</v>
       </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>4</v>
       </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>4</v>
       </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>4</v>
       </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
@@ -1052,118 +1040,123 @@
         <v>4</v>
       </c>
     </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>5</v>
+      <c r="G65" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>5</v>
       </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>5</v>
       </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>5</v>
       </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
@@ -1180,117 +1173,157 @@
         <v>5</v>
       </c>
     </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" t="s">
-        <v>46</v>
-      </c>
-      <c r="F76" t="s">
-        <v>60</v>
-      </c>
-      <c r="G76" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" t="s">
-        <v>58</v>
-      </c>
-      <c r="F77" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" t="s">
-        <v>45</v>
-      </c>
-      <c r="E78" t="s">
-        <v>59</v>
-      </c>
-      <c r="F78" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="G80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="G98" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
